--- a/Python/resultados/HW_C002_120.xlsx
+++ b/Python/resultados/HW_C002_120.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.203125</v>
+        <v>28.20536939091576</v>
       </c>
       <c r="C2" t="n">
-        <v>33.09375</v>
+        <v>33.08503803106901</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.15625</v>
+        <v>28.16086738384023</v>
       </c>
       <c r="C3" t="n">
-        <v>33.09375</v>
+        <v>33.08837833079527</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.203125</v>
+        <v>28.20350085034629</v>
       </c>
       <c r="C4" t="n">
-        <v>33.0625</v>
+        <v>33.06534372179797</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.171875</v>
+        <v>28.16969945537825</v>
       </c>
       <c r="C5" t="n">
-        <v>33.09375</v>
+        <v>33.08270338276674</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.171875</v>
+        <v>28.17414451097907</v>
       </c>
       <c r="C6" t="n">
-        <v>33.09375</v>
+        <v>33.10213521319915</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +519,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.1875</v>
+        <v>28.18914747498484</v>
       </c>
       <c r="C7" t="n">
-        <v>33.09375</v>
+        <v>33.09174468346005</v>
       </c>
     </row>
     <row r="8">
@@ -529,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.21875</v>
+        <v>28.21107258196324</v>
       </c>
       <c r="C8" t="n">
-        <v>33.09375</v>
+        <v>33.09414581669628</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +541,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.203125</v>
+        <v>28.19619817954242</v>
       </c>
       <c r="C9" t="n">
-        <v>33.09375</v>
+        <v>33.10478961634517</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.171875</v>
+        <v>28.16780142480074</v>
       </c>
       <c r="C10" t="n">
-        <v>33.09375</v>
+        <v>33.10719441765799</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.1875</v>
+        <v>28.18455121027186</v>
       </c>
       <c r="C11" t="n">
-        <v>33.0625</v>
+        <v>33.07197546099432</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.1875</v>
+        <v>28.18623524630227</v>
       </c>
       <c r="C12" t="n">
-        <v>33.09375</v>
+        <v>33.0893448674782</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.6875</v>
+        <v>19.68219233886653</v>
       </c>
       <c r="C2" t="n">
-        <v>30.109375</v>
+        <v>30.10562828032243</v>
       </c>
     </row>
     <row r="3">
@@ -633,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.65625</v>
+        <v>19.6540882895902</v>
       </c>
       <c r="C3" t="n">
-        <v>30.078125</v>
+        <v>30.07341050112868</v>
       </c>
     </row>
     <row r="4">
@@ -644,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.671875</v>
+        <v>19.66613858350984</v>
       </c>
       <c r="C4" t="n">
-        <v>30.078125</v>
+        <v>30.08259349767796</v>
       </c>
     </row>
     <row r="5">
@@ -655,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.671875</v>
+        <v>19.6677116555131</v>
       </c>
       <c r="C5" t="n">
-        <v>30.09375</v>
+        <v>30.09300099501445</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.640625</v>
+        <v>19.64267509982664</v>
       </c>
       <c r="C6" t="n">
-        <v>30.078125</v>
+        <v>30.07468897153784</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.671875</v>
+        <v>19.67092763213526</v>
       </c>
       <c r="C7" t="n">
-        <v>30.109375</v>
+        <v>30.11529876680587</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.671875</v>
+        <v>19.67087660083289</v>
       </c>
       <c r="C8" t="n">
-        <v>30.09375</v>
+        <v>30.09790456347201</v>
       </c>
     </row>
     <row r="9">
@@ -699,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.65625</v>
+        <v>19.65637676892247</v>
       </c>
       <c r="C9" t="n">
-        <v>30.140625</v>
+        <v>30.14298275179414</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.65625</v>
+        <v>19.66005187916833</v>
       </c>
       <c r="C10" t="n">
-        <v>30.09375</v>
+        <v>30.08981100428429</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.671875</v>
+        <v>19.66410222091681</v>
       </c>
       <c r="C11" t="n">
-        <v>30.140625</v>
+        <v>30.13501810845969</v>
       </c>
     </row>
     <row r="12">
@@ -734,10 +735,169 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.671875</v>
+        <v>19.66351410692821</v>
       </c>
       <c r="C12" t="n">
-        <v>30.09375</v>
+        <v>30.10103374404974</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Noisy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NLM-LBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.48338446106393</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25.17579886182194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.48533510203679</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25.20598679617718</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.48949615537303</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.21476546815518</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.48853078166531</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25.23304109178026</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.49530774530084</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25.28531228590264</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.47969177291145</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25.23009284335531</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.50279262769881</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25.23244070684862</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.48597213448632</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.1715663479612</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.4856828025496</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.29536754363697</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.48139923490796</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.24020234646948</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.4877592817994</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.22845742921088</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C002_120.xlsx
+++ b/Python/resultados/HW_C002_120.xlsx
@@ -461,112 +461,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>28.20536939091576</v>
+        <v>28.20305651627879</v>
       </c>
       <c r="C2" t="n">
-        <v>33.08503803106901</v>
+        <v>33.00751797920881</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.16086738384023</v>
+        <v>28.1580144094411</v>
       </c>
       <c r="C3" t="n">
-        <v>33.08837833079527</v>
+        <v>32.99401465644112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.20350085034629</v>
+        <v>28.16987348421478</v>
       </c>
       <c r="C4" t="n">
-        <v>33.06534372179797</v>
+        <v>32.99175526194325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.16969945537825</v>
+        <v>28.15600956894925</v>
       </c>
       <c r="C5" t="n">
-        <v>33.08270338276674</v>
+        <v>33.02847833869218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.17414451097907</v>
+        <v>28.16395428689887</v>
       </c>
       <c r="C6" t="n">
-        <v>33.10213521319915</v>
+        <v>32.97946245982602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.18914747498484</v>
+        <v>28.16339661077645</v>
       </c>
       <c r="C7" t="n">
-        <v>33.09174468346005</v>
+        <v>33.00158832012826</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>28.21107258196324</v>
+        <v>28.14633007291994</v>
       </c>
       <c r="C8" t="n">
-        <v>33.09414581669628</v>
+        <v>32.98248055393285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.19619817954242</v>
+        <v>28.20476797677451</v>
       </c>
       <c r="C9" t="n">
-        <v>33.10478961634517</v>
+        <v>33.01067652988006</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.16780142480074</v>
+        <v>28.18092803791902</v>
       </c>
       <c r="C10" t="n">
-        <v>33.10719441765799</v>
+        <v>33.00732982539505</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.18455121027186</v>
+        <v>28.17665405271457</v>
       </c>
       <c r="C11" t="n">
-        <v>33.07197546099432</v>
+        <v>32.99690069897951</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.18623524630227</v>
+        <v>28.17229850168873</v>
       </c>
       <c r="C12" t="n">
-        <v>33.0893448674782</v>
+        <v>33.00002046244271</v>
       </c>
     </row>
   </sheetData>
@@ -620,112 +620,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19.68219233886653</v>
+        <v>19.66903947027433</v>
       </c>
       <c r="C2" t="n">
-        <v>30.10562828032243</v>
+        <v>30.05712060327577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.6540882895902</v>
+        <v>19.66565577383501</v>
       </c>
       <c r="C3" t="n">
-        <v>30.07341050112868</v>
+        <v>30.06586323507985</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.66613858350984</v>
+        <v>19.67155795443999</v>
       </c>
       <c r="C4" t="n">
-        <v>30.08259349767796</v>
+        <v>30.03929326543123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.6677116555131</v>
+        <v>19.66982823375871</v>
       </c>
       <c r="C5" t="n">
-        <v>30.09300099501445</v>
+        <v>30.01422176071177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.64267509982664</v>
+        <v>19.6632518252504</v>
       </c>
       <c r="C6" t="n">
-        <v>30.07468897153784</v>
+        <v>30.04131956310932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.67092763213526</v>
+        <v>19.65307407468944</v>
       </c>
       <c r="C7" t="n">
-        <v>30.11529876680587</v>
+        <v>30.02211282573864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.67087660083289</v>
+        <v>19.67157095610282</v>
       </c>
       <c r="C8" t="n">
-        <v>30.09790456347201</v>
+        <v>30.07542490954676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.65637676892247</v>
+        <v>19.66022463844488</v>
       </c>
       <c r="C9" t="n">
-        <v>30.14298275179414</v>
+        <v>30.04663974566906</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.66005187916833</v>
+        <v>19.65748450088456</v>
       </c>
       <c r="C10" t="n">
-        <v>30.08981100428429</v>
+        <v>30.08895833902996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.66410222091681</v>
+        <v>19.66824831209693</v>
       </c>
       <c r="C11" t="n">
-        <v>30.13501810845969</v>
+        <v>30.04012679888558</v>
       </c>
     </row>
     <row r="12">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.66351410692821</v>
+        <v>19.66499357397771</v>
       </c>
       <c r="C12" t="n">
-        <v>30.10103374404974</v>
+        <v>30.04910810464779</v>
       </c>
     </row>
   </sheetData>
@@ -779,112 +779,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.48338446106393</v>
+        <v>14.47884779077478</v>
       </c>
       <c r="C2" t="n">
-        <v>25.17579886182194</v>
+        <v>25.12171099451316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.48533510203679</v>
+        <v>14.4995165635431</v>
       </c>
       <c r="C3" t="n">
-        <v>25.20598679617718</v>
+        <v>25.11024588457892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.48949615537303</v>
+        <v>14.48510080738422</v>
       </c>
       <c r="C4" t="n">
-        <v>25.21476546815518</v>
+        <v>25.11170989818008</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.48853078166531</v>
+        <v>14.48497982696361</v>
       </c>
       <c r="C5" t="n">
-        <v>25.23304109178026</v>
+        <v>25.14808107345671</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.49530774530084</v>
+        <v>14.48706825028646</v>
       </c>
       <c r="C6" t="n">
-        <v>25.28531228590264</v>
+        <v>25.06867512805906</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.47969177291145</v>
+        <v>14.51690813240413</v>
       </c>
       <c r="C7" t="n">
-        <v>25.23009284335531</v>
+        <v>25.12824280903553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.50279262769881</v>
+        <v>14.50663914390977</v>
       </c>
       <c r="C8" t="n">
-        <v>25.23244070684862</v>
+        <v>25.14130665025453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.48597213448632</v>
+        <v>14.48977383929543</v>
       </c>
       <c r="C9" t="n">
-        <v>25.1715663479612</v>
+        <v>25.0607769853883</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.4856828025496</v>
+        <v>14.5059729093162</v>
       </c>
       <c r="C10" t="n">
-        <v>25.29536754363697</v>
+        <v>25.07467567094465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.48139923490796</v>
+        <v>14.4933240800243</v>
       </c>
       <c r="C11" t="n">
-        <v>25.24020234646948</v>
+        <v>25.04972300678268</v>
       </c>
     </row>
     <row r="12">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.4877592817994</v>
+        <v>14.4948131343902</v>
       </c>
       <c r="C12" t="n">
-        <v>25.22845742921088</v>
+        <v>25.10151481011936</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C002_120.xlsx
+++ b/Python/resultados/HW_C002_120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +474,9 @@
       <c r="C2" t="n">
         <v>33.00751797920881</v>
       </c>
+      <c r="D2" t="n">
+        <v>32.67859405226891</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -480,6 +488,9 @@
       <c r="C3" t="n">
         <v>32.99401465644112</v>
       </c>
+      <c r="D3" t="n">
+        <v>32.669660807113</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -491,6 +502,9 @@
       <c r="C4" t="n">
         <v>32.99175526194325</v>
       </c>
+      <c r="D4" t="n">
+        <v>32.67907790070751</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -502,6 +516,9 @@
       <c r="C5" t="n">
         <v>33.02847833869218</v>
       </c>
+      <c r="D5" t="n">
+        <v>32.70791871302346</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -513,6 +530,9 @@
       <c r="C6" t="n">
         <v>32.97946245982602</v>
       </c>
+      <c r="D6" t="n">
+        <v>32.65235375703056</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -524,6 +544,9 @@
       <c r="C7" t="n">
         <v>33.00158832012826</v>
       </c>
+      <c r="D7" t="n">
+        <v>32.66747878294922</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>32.98248055393285</v>
       </c>
+      <c r="D8" t="n">
+        <v>32.64104335751821</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>33.01067652988006</v>
       </c>
+      <c r="D9" t="n">
+        <v>32.65604721954682</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -557,6 +586,9 @@
       <c r="C10" t="n">
         <v>33.00732982539505</v>
       </c>
+      <c r="D10" t="n">
+        <v>32.68250505813887</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -568,6 +600,9 @@
       <c r="C11" t="n">
         <v>32.99690069897951</v>
       </c>
+      <c r="D11" t="n">
+        <v>32.66992413889999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -580,6 +615,9 @@
       </c>
       <c r="C12" t="n">
         <v>33.00002046244271</v>
+      </c>
+      <c r="D12" t="n">
+        <v>32.67046037871965</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +655,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +671,9 @@
       <c r="C2" t="n">
         <v>30.05712060327577</v>
       </c>
+      <c r="D2" t="n">
+        <v>29.54380596460894</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,6 +685,9 @@
       <c r="C3" t="n">
         <v>30.06586323507985</v>
       </c>
+      <c r="D3" t="n">
+        <v>29.53534407776932</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -650,6 +699,9 @@
       <c r="C4" t="n">
         <v>30.03929326543123</v>
       </c>
+      <c r="D4" t="n">
+        <v>29.54416965114997</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -661,6 +713,9 @@
       <c r="C5" t="n">
         <v>30.01422176071177</v>
       </c>
+      <c r="D5" t="n">
+        <v>29.49323995929864</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,6 +727,9 @@
       <c r="C6" t="n">
         <v>30.04131956310932</v>
       </c>
+      <c r="D6" t="n">
+        <v>29.52515516520151</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -683,6 +741,9 @@
       <c r="C7" t="n">
         <v>30.02211282573864</v>
       </c>
+      <c r="D7" t="n">
+        <v>29.48341715228198</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -694,6 +755,9 @@
       <c r="C8" t="n">
         <v>30.07542490954676</v>
       </c>
+      <c r="D8" t="n">
+        <v>29.55948776812578</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -705,6 +769,9 @@
       <c r="C9" t="n">
         <v>30.04663974566906</v>
       </c>
+      <c r="D9" t="n">
+        <v>29.54425401981801</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -716,6 +783,9 @@
       <c r="C10" t="n">
         <v>30.08895833902996</v>
       </c>
+      <c r="D10" t="n">
+        <v>29.55487052702894</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -727,6 +797,9 @@
       <c r="C11" t="n">
         <v>30.04012679888558</v>
       </c>
+      <c r="D11" t="n">
+        <v>29.50300359401016</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -739,6 +812,9 @@
       </c>
       <c r="C12" t="n">
         <v>30.04910810464779</v>
+      </c>
+      <c r="D12" t="n">
+        <v>29.52867478792933</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +852,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -787,6 +868,9 @@
       <c r="C2" t="n">
         <v>25.12171099451316</v>
       </c>
+      <c r="D2" t="n">
+        <v>23.98228593436999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +882,9 @@
       <c r="C3" t="n">
         <v>25.11024588457892</v>
       </c>
+      <c r="D3" t="n">
+        <v>23.99189338932188</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -809,6 +896,9 @@
       <c r="C4" t="n">
         <v>25.11170989818008</v>
       </c>
+      <c r="D4" t="n">
+        <v>23.95039649717871</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -820,6 +910,9 @@
       <c r="C5" t="n">
         <v>25.14808107345671</v>
       </c>
+      <c r="D5" t="n">
+        <v>24.02942197673373</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -831,6 +924,9 @@
       <c r="C6" t="n">
         <v>25.06867512805906</v>
       </c>
+      <c r="D6" t="n">
+        <v>23.91735125218709</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -842,6 +938,9 @@
       <c r="C7" t="n">
         <v>25.12824280903553</v>
       </c>
+      <c r="D7" t="n">
+        <v>23.97880740875211</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -853,6 +952,9 @@
       <c r="C8" t="n">
         <v>25.14130665025453</v>
       </c>
+      <c r="D8" t="n">
+        <v>23.99234611418994</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -864,6 +966,9 @@
       <c r="C9" t="n">
         <v>25.0607769853883</v>
       </c>
+      <c r="D9" t="n">
+        <v>23.91410449391927</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -875,6 +980,9 @@
       <c r="C10" t="n">
         <v>25.07467567094465</v>
       </c>
+      <c r="D10" t="n">
+        <v>23.9269836763322</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -886,6 +994,9 @@
       <c r="C11" t="n">
         <v>25.04972300678268</v>
       </c>
+      <c r="D11" t="n">
+        <v>23.86353568785949</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,6 +1009,9 @@
       </c>
       <c r="C12" t="n">
         <v>25.10151481011936</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23.95471264308444</v>
       </c>
     </row>
   </sheetData>
